--- a/Test.xlsx
+++ b/Test.xlsx
@@ -6,6 +6,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="marvel" sheetId="3" r:id="rId3"/>
+    <sheet name="harry potter" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -2108,4 +2109,985 @@
     <ignoredError numberStoredAsText="1" sqref="A1:D21"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>_id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>link</v>
+      </c>
+      <c r="C1" t="str">
+        <v>title</v>
+      </c>
+      <c r="D1" t="str">
+        <v>summary</v>
+      </c>
+      <c r="E1" t="str">
+        <v>date</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>5b92d8912e84332c18f4de7a</v>
+      </c>
+      <c r="B2" t="str">
+        <v>https://www.facebook.com/harrypottermovie/</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Sections of this pageAccessibility HelpFacebookForgot account?HomePostsVideosPhotosInstagramPinterestAboutCommunityEventsInfo and AdsLog InCreate New AccountForgot account?Create New AccountNot NowSee AllSee AllContact Harry Potter on Messengerwww.harrypotter.comwww.harrypotter.comMovie73,363,158 likesMypotterquotesDaniel Radcliffe․Annabelle: CreationPotterheads TogetherThe Conjuring Universe M.EHogwarts is our homeThe Common RoomCommunity OrganizationPotterheadsHarry Potter: Hogwarts MysteryWarner Bros. Studio Tour LondonLandmark &amp; Historical Place"Accio Potterheads!"Hogwarts LogicWB IndiaHarry Potter Books from BloomsburyEmma WatsonEspañolPortuguês (Brasil)Français (France)DeutschPrivacyTermsAdvertisingAd ChoicesCookiesMoreHarry PotterFantastic BeastspostSpSonSsoSredS2 hrsFantastic Beasts4 new photos2 hrs#FantasticBeasts#FantasticFansHarry PotterSpSonSsoSredS5 hrsHarry Potter and the Cursed Childhttp://po.st/SsTtKUMore Tickets Released For Cursed Child On Broadway!Harry PotterSee All2.6K1471.7K573.7K129See AllSee AllSee More</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Thank you to all our fans for bringing more magic to the world! Submit your #FantasticBeasts art using #FantasticFans for a chance to be featured.A new block of tickets for Harry Potter and the Cursed Child on Broadway go on sale September 27 at 11am ET. Here’s everything you need to know: http://po.st/SsTtKU</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3" t="str">
+        <v>5b92d8912e84332c18f4de79</v>
+      </c>
+      <c r="B3" t="str">
+        <v>https://www.hp-lexicon.org/</v>
+      </c>
+      <c r="C3" t="str" xml:space="preserve">
+        <v xml:space="preserve">The Harry Potter Lexicon HomeBlogLexicon PodcastHarry Potter MinuteEssaysSourcesSupport the LexiconFeedbackAbout the LexiconCreditsPrivacy PolicyTerms of UseCharactersHarry PotterAlbus DumbledoreLord VoldemortSeverus SnapeSirius BlackHermione GrangerRon WeasleyDraco MalfoymorePlacesHogwartsDiagon AlleyPrivet DriveMinistry of Magic HQThe BurrowmoreMagicSpellsPotionsMagical ObjectsMagical PlantsmoreEventsHarry is sorted into GryffindorBattle of HogwartsDeath of James and LilyTriwizard TournamentmoreThingsQuidditchHogwarts ExpressWandsDaily ProphetAurorsCurrency ConvertermoreCreaturesDragonsHippogriffsHouse-elvesGoblinsCentaursmoreSourcesThe Harry Potter NovelsOther Potter BooksInterviewsOther CanonmoreEssaysThe Death Eaters: A Guide To Who Was WhereFamous Wizard CardsAlbus Potter and the lesson in Quantum MechanicsmoreListsMagical PeopleGovernmentWizarding AtlasmorecompleatPuzzles, Mysteries, and Loose EndsRead MoreHospital WingRead MoreFantastic Beasts: The Crimes of Grindelwald coverDigging for Gold in the CG Cast ListRead MoreA blue roan hippocampus is caught by merpeopleRead MoreIlkley MoorInferiRead MoreExploring The Most Enigmatic Character in CanonRead MoreHagrid And Slughorn (Book 6)
+Previous
+Next
+On this day in 1533...Quote of the DayRead MoreThe Harry Potter Minute🎙️ Myrtle, Hagrid, and CSEileen JonesRead MoreDownloadLexicon Podcast🎙️ Episode 31: The Crimes of Grindelwald TrailerSteve VanderArkNick MolineRead MoreDownloadLatest from the Lexicon BlogHow Much is the Wand Again? I mean in Dollars ...Steve VanderArkWebsite newsRead MoreMuggleNet's "Ten Amazing Facts" and How To Find ThemSteve VanderArkCanon discussionRead MoreExploring The Most Enigmatic Character in CanonSteve VanderArkFandom NewsRead MoreSeven Things you REALLY Didn't Know About J.K. RowlingJohn GrangerFandom NewsRantsRead MorePre-order your copy of Crimes of Grindelwald and support the Lexicon!Steve VanderArkWebsite newsRead More© 2000 – 2018 The Harry Potter Lexicon</v>
+      </c>
+      <c r="D3" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Welcome to the The Harry Potter Lexicon
+The most compleat and amazing reference to the wonderful world of Harry Potter
+est. 2000 A.D.
+Stuff we still wonder about even after book seven … the other secret passage “There are seven in all. Now, Filch knows about these four” — he pointed them out — “but we’re sure we’re the only ones who know about these. Don’t bother with the one behind the mirror on the fourth floor. We used it until last winter,… Read MoreThe hospital wing is where Hogwarts residents go to have their medical needs met, anything from basic first aid after rough Quidditch matches to treatment for serious medical conditions like petrification from a Basilisk. The hospital wing is the domain of the school matron (U.S.: nurse), Madam Pomfrey. It is located on the first floor, and later one or two floors up. Read MoreNow that the trailer has come out and presented us with wonderful nuggets of canon and plenty of questions to chew over, I think it’s time to dig a little further for canon treasure in the cast list of the film. The complete list is published on IMDb, so I took my copy of the Lestrange family tree from… Read MoreAlthough the hippocampus is normally found in the Mediterraean Sea, the merpeople capture a blue roan hippocampus off the coast of Scotland and domesticate it. Read MoreThe Inferi are animated corpses who do the bidding of the Dark wizard who created them, like gruesome puppets (HBP4, HBP21). The singular form of the word is Inferius (HBP3, HBP9, HBP21). … Read MoreWith that headline, you’d probably be thinking that this is about Snape. But you’d be wrong. Snape was only mysterious while we were reading the books. Now that we’re finished, we have Snape pretty much figured out. Rowling did one of her classic “here’s all the answers, you’re welcome” chapters with him at the end of Deathly Hallows, just like… Read MoreElizabeth Tudor (later Elizabeth I, Queen of England), is born The spells are made up. I have met people who assure me, very seriously, that they are trying to do them, and I can assure them, just as seriously, that they don’t work. Read More
+</v>
+      </c>
+      <c r="E3" t="str">
+        <v>September 5 2018March 19, 2018July 31, 2018July 29, 2018July 23, 2018June 5, 2018May 31, 2018</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v>5b92d8912e84332c18f4de78</v>
+      </c>
+      <c r="B4" t="str">
+        <v>https://tucson.com/thisistucson/todo/roadhouse-cinemas-is-hosting-a-harry-potter-marathon-with-butterbeer/article_bca807ac-b092-11e8-be3f-bb7f643e1cac.html</v>
+      </c>
+      <c r="C4" t="str" xml:space="preserve">
+        <v xml:space="preserve"> Edit Article Add New Article
+                    Facebook
+                    YouTube
+                    Pinterest
+                    Instagram
+                To Do☀️summer 5 BestEat_x000d_
+                                    _x000d_
+                                Schoolsfind a schoolTucson Lifecalendarvideos_x000d_
+                                    _x000d_
+                                Arizona Daily StarE-NewspaperArchivesWeekly AdsSpecial Sections_x000d_
+                                    _x000d_
+                                ClassifiedsPlace an AdFind a BusinessHomesCarsClassifiedsToday's DealJobs_x000d_
+                                    _x000d_
+                                Customer ServiceManage My AccountNewsletter Sign-UpSubscribeContact us
+        _x000d_
+                _x000d_
+                    _x000d_
+                    _x000d_
+                _x000d_
+                _x000d_
+                    96°_x000d_
+                    _x000d_
+                _x000d_
+                _x000d_
+             Full Forecast
+                    Sign inSubscribe today
+                 Manage account e-Newspaper Logout_x000d_
+                    to do_x000d_
+                _x000d_
+                    ☀️ summer  _x000d_
+                _x000d_
+                    5 best_x000d_
+                _x000d_
+                    eat_x000d_
+                _x000d_
+                    schools_x000d_
+                _x000d_
+                    tucson life_x000d_
+                    _x000d_
+                _x000d_
+                    _x000d_
+                    _x000d_
+                _x000d_
+                Facebook_x000d_
+                _x000d_
+                    _x000d_
+                    _x000d_
+                _x000d_
+                Twitter_x000d_
+            _x000d_
+                _x000d_
+                _x000d_
+                _x000d_
+                _x000d_
+                Email_x000d_
+                _x000d_
+                _x000d_
+                    _x000d_
+                    _x000d_
+                _x000d_
+                Facebook_x000d_
+                _x000d_
+                    _x000d_
+                    _x000d_
+                _x000d_
+                Twitter_x000d_
+            _x000d_
+                _x000d_
+                _x000d_
+                _x000d_
+                _x000d_
+                Email_x000d_
+            _x000d_
+                    _x000d_
+                        _x000d_
+                        _x000d_
+                    _x000d_
+                    Print_x000d_
+                Save
+        _x000d_
+        _x000d_
+            _x000d_
+            Roadhouse Cinemas is hosting a Harry Potter marathon. With butterbeer._x000d_
+        _x000d_
+    Angela Pittenger_x000d_
+_x000d_
+                                    Angela Pittenger | This Is Tucson
+	                _x000d_
+                _x000d_
+                    _x000d_
+                    _x000d_
+                _x000d_
+                Facebook_x000d_
+                _x000d_
+                    _x000d_
+                    _x000d_
+                _x000d_
+                Twitter_x000d_
+            _x000d_
+                _x000d_
+                _x000d_
+                _x000d_
+                _x000d_
+                Email_x000d_
+                _x000d_
+                _x000d_
+                    _x000d_
+                    _x000d_
+                _x000d_
+                Facebook_x000d_
+                _x000d_
+                    _x000d_
+                    _x000d_
+                _x000d_
+                Twitter_x000d_
+            _x000d_
+                _x000d_
+                _x000d_
+                _x000d_
+                _x000d_
+                Email_x000d_
+            _x000d_
+                    _x000d_
+                        _x000d_
+                        _x000d_
+                    _x000d_
+                    Print_x000d_
+                Save
+        4811 E. Grant Roadhere    _x000d_
+                _x000d_
+                    _x000d_
+                    _x000d_
+                _x000d_
+                Facebook_x000d_
+                _x000d_
+                    _x000d_
+                    _x000d_
+                _x000d_
+                Twitter_x000d_
+            _x000d_
+                _x000d_
+                _x000d_
+                _x000d_
+                _x000d_
+                Email_x000d_
+            _x000d_
+                    _x000d_
+                        _x000d_
+                        _x000d_
+                    _x000d_
+                    Print_x000d_
+                Save
+            New playgroup brings toddlers and elderly Tucsonans together
+            Bugs and biomes: This badass science mom took a DNA sample to cure her daughter's ear infection
+            Go on a grown-up corn maze adventure. WITH WINE 🍷🍷🍷Harry PotterMarathonRoadhouse CinemasHarry Potter Wizarding World Marathon_x000d_
+_x000d_
+                                    Angela Pittenger | This Is Tucson
+            Les Misérables at Centennial Hall
+            Mosaics Meet-Up at the Blue Raven Art School
+            The Vampire at Gaslight Theatre
+            Paint Cherry Blossom Wine Glasses at Putney's Bar
+            Won't You Be My Neighbor?
+            Mighty Mujer Tri Clinic in Oro Valley
+            Vegan Hands-On Cooking Class at The Garden Kitchen
+            Sensory Friendly Film of A.X.L
+            Free Screening of Kirikou and the Sorceress
+            Great Crush Festival
+            Borderlands Brewery Fitness
+            Roadhouse Cinemas is hosting a Harry Potter marathon. With butterbeer.
+            26 things to do in Tucson this weekend, Sept. 7-9
+            New pop-up vintage market in Marana starts this weekend
+            New eats! 7 Tucson restaurants and coffee shops that opened in August
+            The women behind this new Tucson auto shop want you to breathe easy
+            Our roots go deep: Live storytelling on how Tucson became home
+            26 Tucson festivals and events you need to check out before the year is over
+            Get your vintage and antiques fix at the Mercado Flea Market
+            Bright paint and potted plants part of plan to transform Tucson intersection
+            3 ways to get out and ride your bike with friends this week
+            About us
+            Submit a story idea
+            Advertise with us
+            Tucson.com
+            Sign up for our weekly newsletters!
+            #ThisIsTucson app for iOS
+            #ThisIsTucson app for Android
+            Tucson stickers for iMessage
+            Tucson stickers for Gboard
+            This Is Tucson ShopArizona Daily StarTerms of UsePrivacy PolicyBLOX Content Management SystemTownNews.com</v>
+      </c>
+      <c r="D4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Sunny. High near 100F. Winds NNE at 5 to 10 mph..The first “Harry Potter” movie made more than $317 million at the box office in 2001. Best picture winner “A Beautiful Mind” brought in $170 million and finished 11th overall.The first “Harry Potter” movie made more than $317 million at the box office in 2001. Best picture winner “A Beautiful Mind” brought in $170 million and finished 11th overall.All right you muggles. It's time to grab your wands and watch your favorite wizard on the big screen at Roadhouse Cinemas.Each weekend starting at 9 a.m. Saturday, a Harry Potter film will be screened leading up to the release of "Fantastic Beasts: The Crimes of Grindelwal," which opens Nov. 16. They're calling it A Harry Potter Wizarding World Marathon. To get you in the spirit, the kitchen at Roadhouse Cinemas is whipping up some butter beer and a special breakfast menu. Tickets for each film are $5 or you can pay $9.95 to see the movie AND have breakfast. Roadhouse Cinemas is located at 4811 E. Grant Road, suite 150.Click here to reserve your seats for the current weekend's shows. Here's the plan:Sept. 8-9: Harry Potter and the Sorcerer's StoneSept. 15-16: Harry Potter and the Chamber of SecretsSept. 22-23: Harry Potter and the Prisoner of AzkhabanSept. 29-30: Harry Potter and the Goblet of FireOct. 6-7: Harry Potter and the Order of the PhoenixOct. 13-14: Harry Potter and the Half-Blood PrinceOct. 20-21: Harry Potter and the Deathly Hallows: Part 1                  Harry Potter and the Deathly Hallows: Part 2Oct. 27-28: Fantastic Beasts and Where to Find ThemAngela Pittenger | This Is TucsonAs Betty Walker is wheeled into a room filled with toddlers, moms and other residents of the…After several rounds of antibiotics over the course of two years, Bonnie Hurwitz's then 2-ye…We've got the ultimate pairing for you: Arizona wine and a corn maze. Families and schools reporter for #ThisIsTucson. Artist, photographer, mother of one.
+</v>
+      </c>
+      <c r="E4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Sep 6 2018
+            Fri, Sep 7, 2018 
+            Fri, Sep 7, 2018 
+            Fri, Sep 7, 2018 
+            Fri, Sep 7, 2018 
+            Fri, Sep 7, 2018 
+            Sat, Sep 8, 2018 
+            Sat, Sep 8, 2018 
+            Sat, Sep 8, 2018 
+            Sat, Sep 8, 2018 
+            Sat, Sep 8, 2018 
+            Sat, Sep 8, 2018 
+        </v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
+        <v>5b92d8912e84332c18f4de77</v>
+      </c>
+      <c r="B5" t="str">
+        <v>https://www.youtube.com/watch?v=gYD6fBIILCk</v>
+      </c>
+      <c r="C5" t="str">
+        <v>25 Behind The Scenes Secrets From Harry Potter And The Deathly Hallows</v>
+      </c>
+      <c r="D5" t="str" xml:space="preserve">
+        <v xml:space="preserve">Screen Rant
+Published on Sep 2, 2018
+SUBSCRIBE 5.1M
+You'll never watch Harry Potter And The Deathly Hallows the same way after seeing these behind the scenes moments! Subscribe to our channel: http://goo.gl/ho3Hg6
+Even a Death Eater couldn’t deny the goodness of the Harry Potter series. It brought us all so many memories and, if you came of age at a certain time in the past 20 or so years, you might have grown up with Harry. So what better time than now to get into a nitty-gritty discussion about the movies in which Harry grows up, himself. Yeah, we’re talking about Harry Potter and the Deathly Hallows Parts 1 and 2. Join ScreenRant as we journey back to the two final films of one of our favorite franchises and explore 25 of the most interesting behind the scenes secrets you may not have heard. 
+He’s known as the Boy Who Lived and with a new franchise in the making with the Fantastic Beasts series, the wizarding world will be around for many years to come. So let’s get excited for the next installment by looking back on the moments that made wizarding history. And, more importantly, let’s answer how these specific moments were actually made. We’ll talk about the connections between actors and the opportunities they had to play each other (like with Emma Watson and Helena Bonham Carter or Daniel Radcliffe and everyone else). We’ll also discuss stunts, special effects, prop wands, house elves, romance and any other connection to J.K. Rowling’s classic series that you can imagine. There’s always more secrets revolving around your favorite movies and, like the Room of Requirement, ScreenRant will be there with the things you need. And, hey, we just might have answers to your lingering questions.
+Featuring: 
+Entry 1 - BELLATRIX WAS NICE
+Entry 2 - PUBLIC PLACES WERE CLOSED
+Entry 3 - THE SWORD OF GRYFFINDOR
+Entry 4 - LUNA LOVES EVANNA
+Entry 5 - MINI-HOGWARTS
+Entry 6 - FINAL DAY OF FILMING
+Entry 7 - SOUVENIRS FROM THE FILM
+Entry 8 - THAT KISSING SCENE
+Entry 9 - THE SEVEN HARRYS
+Entry 10 - WAND REPLACEMENTS
+Entry 11 - MAKEUP AND PROSTHETICS
+Entry 12 - PROP BROOMS
+Entry 13 - HERMIONE OBLIVIATES
+Entry 14 - AN EXTRA CHASE
+Entry 15 - SKINNY DIPPING 
+Entry 16 - STUNT INJURIES
+Entry 17 - ISSUES WITH SOURCE MATERIAL
+Entry 18 - THE GLEESON CONNECTION
+Entry 19 - HERMIONE’S ROOM
+Entry 20 - WARWICK DAVIS CASTING
+Entry 21 - HOUSE ELVES
+Entry 22 - WANDS FOR ALL
+Entry 23 - EPILOGUE ACTORS
+Entry 24 - VOLDEMORT’S LAST STAND
+Entry 25 - ALWAYS
+Our Social Media:
+Our Website
+SHOW MORE</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
+        <v>5b92d8912e84332c18f4de76</v>
+      </c>
+      <c r="B6" t="str">
+        <v>https://screenrant.com/harry-potter-prisoner-azkaban-behind-scenes-making-details-trivia/</v>
+      </c>
+      <c r="C6" t="str" xml:space="preserve">
+        <v xml:space="preserve">ScreenRant.comSR EXCLUSIVESMOVIE NEWSTV NEWSREVIEWSINTERVIEWSLISTS MoreTRAILERSPODCASTSTOP MOVIESCOMICSGamingGAME REVIEWSVideosAbout UsPress KitWrite For UsHomeContact UsTermsPrivacyCopyrightHarry Potter: 23 Crazy Details Behind The Making Of The Prisoner Of AzkabanChris LalondeLists
+Email
+Leave A
+Comment
+23 Alfonso Cuarón Designed Sirius’ Tattoosdesigned the look themselvesvisible tattoos 22 Gary Oldman Took The Role for His KidsAccording to Oldman21 Ian McKellen Turned Down The Role Of DumbledoreMcKellen stated20 JK Rowling Based The Dementors On Her Battle With Depression19 Hermione Was Supposed To Only Slap MalfoyAccording to Tom Felton 18 Alfonso Cuarón Could Not Curse In Front Of The KidsSelf-admittedly17 Everyone Played A Big Prank On Daniel Radcliffespecial features 
+8 Last-Minute Changes That Hurt Supernatural (And 12 That Saved It)
+10 DC Actors Who Look Nothing Like Their Characters (And 10 Who Are Spot On)
+10 Star Wars Episode 9 Rumors That Are Confirmed True (And 10 That Aren't)16 Hogwarts Express Was VandalizedThe Hogwarts Express15 Cedric Diggory Was Not Played By Robert Pattinson14 The Main Cast Wrote Essays To Understand Their CharactersRupert Grint 13 Dudley Dursley Has No Dialogue In The Film12 The director Never Read Any Harry Potter BooksCuarón himself stated 11 Christopher Lee Was Considered For DumbledoreLee turned down10 Harry Breaks Wizarding Law Without Punishment9 M. Night Shyamalan Was Asked To Direct The Movietargeting him critically-panned8 Tom Felton Sneaks Food On To The SetFelton has admitted 7 Gary Oldman Taught Daniel Radcliffe To Play GuitarRadcliffe6 Michael Gambon Never Read Any Harry Potter BooksHe stated5 Daniel Radcliffe Was Told To Imagine Cameron DiazCuarón asked 4 A Ticking Clock Is Audible Throughout The Final Act3 Cuarón's Wife And Daughter Appear In The Film2 Dumbledore Whistles The “Mexican Hat Dance”1 Cuarón Was Surprised That Warner Bros. Chose Him To DirectCuarón himself
+Email
+Leave A
+Comment
+Lists
+14 Couples That Hurt Orange Is The New Black (8 That Saved It)
+Final Fantasy: 20 Strange Details About Cloud Strife’s Body
+Star Trek: 7 Casting Decisions That Hurt Voyager (And 15 That Saved It)
+Star Wars: 20 Things Wrong With Kylo Ren Everyone Chooses To Ignore
+10 Rule Changes That Hurt RuPaul’s Drag Race (And 10 That Saved It)
+20 Ways Video Games Were Almost Completely Different
+Supernatural: 20 Things That Make No Sense About Castiel
+8 Casting Decisions That Hurt Glee (And 12 That Saved It)
+19 Best Sci-Fi Shows According To Rotten Tomatoes (And 1 Stuck With 0%)
+25 Once Upon A Time Fan Theories So Crazy They Might Be True
+25 Behind-The-Scenes Photos Of Vampire Diaries That Change Everything
+Skyrim: 25 Hidden Bosses (And How To Find Them)
+30 Unused Spider-Man Concept Art Designs Better Than What We Got
+Sons Of Anarchy: Every Member Of SAMCRO Ranked From Weakest To Strongest
+20 Naruto Characters Reimagined As VillainsWrite For UsHomeContact UsTermsPrivacyCopyrightAbout UsPress KitFollow Screen Rant on FacebookFollow Screen Rant on TwitterFollow Screen Rant on YoutubeFollow Screen Rant on Google PlusScreen Rant RSS Feed
+Unique lists featuring pop culture, entertainment and crazy facts.
+Covering the hottest movie and TV topics that fans want.
+The most LOL-worthy things the Internet has to offer.
+A fresh take on sports: the biggest news and most entertaining lists.
+The only place to satisfy all of your guilty pleasures.
+The go-to source for comic book and superhero movie fans.
+Pregnancy and parenting news, given to you in a way nobody else has.
+The Most Entertaining Quiz Site In The World.
+The World's Most Entertaining Car Website
+A one-stop shop for all things video games.
+Website for moms seeking advice, community, and entertainment.
+Simply the World’s Most Interesting Travel Site.
+Get Your FREE Access Now!Learn MoreLogin here</v>
+      </c>
+      <c r="D6" t="str">
+        <v>When taking a poll of Harry Potter fans it would not be hyperbolic to say that the favorite book would end up being Harry Potter and the Prisoner of Azkaban.ThePremium grants you  UNLIMITED AD FREE ACCESS  accross our full Network!Have an account? Login here</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Sep 04 2018</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str">
+        <v>5b92d8912e84332c18f4de75</v>
+      </c>
+      <c r="B7" t="str">
+        <v>https://www.mysanantonio.com/lifestyle/article/Huge-Harry-Potter-themed-dance-party-with-13207180.php</v>
+      </c>
+      <c r="C7" t="str" xml:space="preserve">
+        <v xml:space="preserve">SubscribeSign InRegisterHomeSubscribeBuy E-N MerchandiseContact UsAbout UsAdvertise With UsSubscriber ServicesPlace a Classified AdPrivacy PolicySite Terms of UseNewsletters &amp; Text AlertsFind a Business in S.A.News Archives
+                                                                                                State Board of Education to consider dropping ‘heroic’ part
+                                                                                                Texas, U.S. drilling rig count stays flat
+                                                                                                You don’t have to own a car to drive for Lyft in San Antonio
+                                                                                                SAPD: Man beat, sexually assaulted woman he shared motel room
+                                            LocalTexas ShootingS.A. Stock Show &amp; RodeoNews by NeighborhoodTexasObituariesTrafficWeatherS.A. HistoryGuide to San AntonioSan Antonio CharityClassified Marketplace
+                                                                                                State Board of Education to consider dropping ‘heroic’ part
+                                                                                                SAPD: Man beat, sexually assaulted woman he shared motel room
+                                                                                                Mother arrested after doctors allegedly discover 8 fractures on
+                                                                                                Frances Hall, convicted of killing husband 2 years ago, heads
+                                            NationBreaking News AnywhereBorder &amp; MexicoUSWorldHealth CarePoliticsMilitaryTrack FlightsStrange News
+                                                                                                Immigrant families struggling with trauma of separation
+                                                                                                Obama issues scathing critique of Trump, 'politics of fear'
+                                                                                                Iraqi protesters set fire to Iran consulate in southern city
+                                                                                                Wildfire closes key California highway through the weekend
+                                            BusinessUresti TrialLocalEagle Ford &amp; EnergyNational &amp; InternationalAutomotive NewsTop Workplaces in S.A.TechnologyBusiness FeaturesFinance FeaturesBusiness CareersTech FeaturesPress Releases
+                                                                                                In liberal Wine Country, turning newspaper readers into
+                                                                                                Texas, U.S. drilling rig count stays flat
+                                                                                                You don’t have to own a car to drive for Lyft in San Antonio
+                                                                                                West Texas oil constraints coming faster than expected
+                                            Sports2018 Basketball BracketSan Antonio SpursSports NationS.A. Stock Show &amp; RodeoNBANFLMLBSoccerCollegesCollege FootballCollege BasketballHigh School ScoresHigh Schools
+                                                                                                Lightning forces Smithson Valley to cancel football game
+                                                                                                Texas OL Patrick Hudson taken to ICU with heat-related illness
+                                                                                                H.S. football: Week 2 scouting report
+                                                                                                San Antonio's Week 2 area high school football schedule
+                                            FoodRestaurantsFood Voted Best in S.A.Recipes &amp; CookingBars &amp; DrinksSnacks and EntertainingGuide to Food in S.A.Sponsored: Sip, Savor, Celebrate
+                                                                                                New San Antonio food truck park set to debut Sept. 14
+                                                                                                Quaff for a cause at Ramos Gin Fizz fundraiser
+                                                                                                San Antonio restaurant inspections: September 7, 2018
+                                                                                                Taco Cabana is celebrating 40 years in San Antonio with these
+                                            EntertainmentWhat S.A. is WatchingThings To DoFiesta 2018Rodeo 2018Celebrity BuzzComicsPuzzlesHoroscopeMovies &amp; TVMusic &amp; StageArts &amp; CultureGuide to San AntonioReaders' ChoicePhotos at S.A. Parties
+                                                                                                Look inside the Monte Vista home where H-E-B shoots ads
+                                                                                                Fans 'didn't want the night to end' as Luke Bryan rocks AT&amp;T
+                                                                                                River City Rockfest full schedule released
+                                                                                                Photos show San Antonio's social scene and big events of Summer
+                                            StyleWedding AnnouncementsBridal IdeasTravel &amp; OutdoorsDestinationsHealth &amp; FamilySenior LivingHome &amp; GardenHolidaysTrends &amp; StyleBeauty and Fashion TipsBetter Living TipsParentingPetsGreen Living
+                                                                                                'Huge' Harry Potter-themed dance party with Quidditch pong
+                                                                                                Surprise survivorship right can be trouble
+                                                                                                UTSA student, San Antonio native wins Miss Texas USA 2019
+                                                                                                Israel: A Vegan’s Paradise
+                                            Video360° VideoMovies &amp; TVNews VideosSpurs NationViral Videos
+                                                                                                Alamo City Roller Girls find community, independence in sport
+                                                                                                Spurs legend Tim Duncan submits victim's statement in federal
+                                                                                                'I didn't do no murder,' smiling suspect engages S.A. media
+                                                                                                Build a barbecue supply box with these essentials
+                                            OpinionEditorialsCommentaryLetters to the EditorColumnistsThird &amp; Ave. EEditorial CartoonsJosh BrodeskyRobert SeltzerO. Ricardo PimentelBruce DavidsonMaria AnglinGloria Padilla
+                                                                                                Amid climate change, hope can inspire change
+                                                                                                Trump promised farmers deals, now has to bail them out
+                                                                                                Why Latinos loved John McCain
+                                                                                                Your Turn: Sept. 7
+                                            CarsCar Tips and HelpNews &amp; ReviewsVehicle SearchCar FeaturesLatest Car Reviews
+                                                                                                Volkswagen adds special GT V-6 model to midsize Passat sedan
+                                                                                                Newest generation of Honda’s Accord debuts for 2018, includes
+                                                                                                Popular Nissan Sentra compact sedan here for 2019, with prices
+                                            JobsSalary WizardTop WorkplacesCareer Features
+                                                                                                US stock indexes wobble amid trade war, rate concerns
+                                                                                                US hiring picked up in August as pay surged most in 9 years
+                                                                                                World stocks mostly fall on possible US-China tariffs
+                                            HomesHome SearchLandRentalsOpen HousesNew Homes SearchHill Country LivingReal Estate TipsHome Yard TipsHome DIYHome Decorating
+                                                                                                Single-family homes just listed for sale in San Antonio
+                                                                                                Open houses around San Antonio
+                                                                                                San Antonio homes for rent
+                                            ExpressNews.comMenuSections'Huge' Harry Potter-themed dance party with Quidditch pong planned for San AntonioMadalyn Mendoza
+             less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photo less ... moreBuy photoWizard FestJeff Goldblum will be at San Antonio's Alamo City Comic ConLifestyle Channel
+                                                    Now Playing
+                                                MySA.comhere@MaddySkyeMost Popular
+        NWS: Heavy rainfall expected in San Antonio in the coming days
+        Frances Hall, convicted of killing husband 2 years ago, heads back to San Antonio
+        More than 60 sickened after eating at a San Antonio Pasha Mediterranean Grill, officials say
+        Here's how to win the lottery, according to a Romanian-born mathematician who hacked the system, won 14 times, and retired on a remote, tropical island
+        Doctors raced time to save mother, baby hit at S.A. bus stop
+        $18.3M approved for controversial land bridge at S.A. park
+        San Antonio native starring in upcoming ABC series produced by Eva Longoria View Comments Return to TopCorporate HomeCareersAdvertisingPrivacy NoticeYour California Privacy RightsInterest Based AdsTerms of UseFAQNewsroom ContactsPurchase PhotosPlace a Classified AdNewslettersFacebookTwitterGoogle+InstagramSan Antonio Express-NewsExpressNews.comiPad appe-editionSearch Our News Archive</v>
+      </c>
+      <c r="D7" t="str">
+        <v>By Madalyn Mendoza mySanAntonio.comOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyOn October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie.  Plenty of Potter fans dressed the part for the concert.On October 13, 2017 at the Majestic Theatre, the San Antonio Symphony performed music from Harry Potter and the Chamber of Secrets. A giant high definition screen showed magical moments from the movie. PlentyCaptionLocal muggles have the chance to experience Hogwarts in San Antonio, complete with magic potions and Quidditch pong.</v>
+      </c>
+      <c r="E7" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+            3:59 pm CDT Wednesday, September 5, 2018
+        </v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8" t="str">
+        <v>5b92d8912e84332c18f4de74</v>
+      </c>
+      <c r="B8" t="str">
+        <v>https://variety.com/2018/gaming/news/lego-harry-potter-collection-xbox-one-switch-1202929687/</v>
+      </c>
+      <c r="C8" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+				Login
+						Subscribe Today!					
+					Read Next:					'Fortnite's' New 'High Stakes' Limited-Time Event Live Now
+				InstagramTwitterYouTubeFacebookVariety.comFilmTVMusicTechGamingTheaterReal EstateAwardsVideoV500HOMEGamingNews‘LEGO Harry Potter Collection’ Brings Remastered Updates to Xbox One and Switch This FallBrittany VincentBrittany Vincent‘H1Z1’ Goes Mobile With Upcoming ‘Z1’ Port‘Call of Duty: Black Ops 4’ Trailer Shows First Look at ‘Blackout’ GameplayMicrosoft Introduces ‘Minecraft’ Collections and Bundled Xbox One S ControllersView AllFacebookTwitterRedditEmail
+			Show more sharing options
+		LinkedInWhatsAppPrintPin ItTumblrLEGOWarner Bros. Interactive EntertainmentTT GamesLEGO Harry Potter Collection
+		Leave a Reply	LEGO Harry Potter CollectionTT GamesWarner Bros. Interactive EntertainmentSubscribe to Variety Today.
+							Viola Davis Explains Her Wonder Woman Obsession
+							Viola Davis Wants #MeToo and Time's Up to Go Beyond Hollywood
+							Jennifer Hudson Stuns with Rendition of 'Amazing Grace'
+							Ariana Grande Honors Aretha Franklin With 'Natural Woman' Performance
+							How Lili Reinhart Discovered Her Own Body Positivity
+							Shawn Mendes on the Meaning of 'Youth': 'We're Not Describing Age'
+							Pete Davidson Is Not Here for the 'Nine-Hour' 'Harry Potter and the Cursed Child'
+							Amandla Stenberg Says She Wants More Black, Gay On-Screen Narratives
+							What Anthony Bourdain Taught 'Parts Unknown' Cinematographer Morgan Fallon
+							Shawn Mendes Wants to 'Stop Touring' and Start Acting 'Very Soon'Watch More
+								Viola Davis Explains Her Wonder Woman Obsession
+								Viola Davis Wants #MeToo and Time's Up to Go Beyond Hollywood
+								Jennifer Hudson Stuns with Rendition of 'Amazing Grace'
+								Ariana Grande Honors Aretha Franklin With 'Natural Woman' Performance
+								How Lili Reinhart Discovered Her Own Body Positivity
+								Shawn Mendes on the Meaning of 'Youth': 'We're Not Describing Age'
+								Pete Davidson Is Not Here for the 'Nine-Hour' 'Harry Potter and the Cursed Child'
+								Amandla Stenberg Says She Wants More Black, Gay On-Screen Narratives
+								What Anthony Bourdain Taught 'Parts Unknown' Cinematographer Morgan Fallon
+								Shawn Mendes Wants to 'Stop Touring' and Start Acting 'Very Soon'
+			Charlie Rose Says Accusers Trying to 'Exploit' #MeToo Movement
+			'Brooklyn Nine-Nine' Scores Additional 5-Episode Order at NBC
+			Heidi Klum, Tim Gunn Bolt 'Project Runway' for New Amazon Series
+					BizCharlie Rose Says Accusers Trying to ‘Exploit’ #MeToo Movement
+					MusicKanye West Drops Obscene, NSFW Song With Lil Pump, ‘I Love It’
+					TV‘Brooklyn Nine-Nine’ Scores Additional 5-Episode Order at NBCMore Gaming
+			GameStop Sales Slide As It Continues Looking For Buyers
+			'H1Z1' Goes Mobile With Upcoming 'Z1' Port
+			Overwatch League Signs Six More Teams
+			Nantworks Invests in Daybreak Game Company for Mobile Game Venture
+			'Civilization VI' Coming To Nintendo Switch In November
+			'Fortnite' Season 5, Week 9 Challenges Guide
+			Insomniac Talks About The Tech Behind 'Spider-Man's' Satisfying Swing
+							Indiewire‘The Nun’ and ‘American Horror Story’ Star Taissa Farmiga On Why She Doesn’t Like Horror Movies
+							HollywoodLifeKylie Jenner’s Neon Outfits – Pics
+							BGRSurprise sale slashes the Fire TV Stick to just $25 for Prime members
+							WWDSpring 2019 Beauty Trends From Fashion Week: Makeup, Hair and Nails
+							SPYThese Self Watering Planters Are Great For People Lacking Green ThumbVarietyAbout UsCareersVariety Screening SeriesVariety 411Variety InsightVscoreLive Media SummitsLegalPrivacy PolicyTerms of UseYour Privacy RightsAd ChoicesPrivacy PreferencesCustomer ServiceVariety PremierVariety ArchivesVariety PrintContact UsAccountLoginSubscribeHelpNewslettersConnectInstagramTwitterYouTubeFacebookThe Business of EntertainmentSubscribe TodayWordPress.com VIPHave a tip? Let us know
+					Variety.com
+				FilmNewsReviewsPodcastsBox OfficeEventsColumnsTVNewsReviewsPodcastsRecapsEventsPilot ScorecardColumnsMusicNewsNew MusicAlbum ReviewsConcert ReviewsAwardsNewsIn ContentionArtisansFeaturesColumnsVideoVideoTrailersCover Shoots – Behind the ScenesActors on ActorsPower of WomenEventsArtisansTorontoDirtReal Estate NewsPhotosLifestyleDigitalNewsFeaturesGlobalMoreObituariesPoliticsPhotosSceneVoicesLive Media SummitsVscoreVariety InsightVariety ArchivesV500
+						Subscribe Today!					
+				Login
+			InstagramTwitterYouTubeFacebookAdvertiseAboutTipsContact Us
+						PMC
+					</v>
+      </c>
+      <c r="D8" t="str" xml:space="preserve">
+        <v xml:space="preserve">Muggles rejoice: “LEGO Harry Potter Collection” is heading to consoles this October, just in time for witchcraft and wizardry galore.Muggles, rejoice: “LEGO Harry Potter Collection” is heading to consoles this October, just in time for witchcraft and wizardry galore. Remastered versions of “LEGO Harry Potter: Years 1-4” and “LEGO Harry Potter: Years 5-7” will be included in the package when it lands on Nintendo Switch and Xbox One for the first time ever. Now, […]Muggles, rejoice: “LEGO Harry Potter Collection” is heading to consoles this October, just in time for witchcraft and wizardry galore. Remastered versions of “LEGO Harry Potter: Years 1-4” and “LEGO Harry Potter: Years 5-7” will be included in the package when it lands on Nintendo Switch and Xbox One for the first time ever. Now, […]Muggles, rejoice: “LEGO Harry Potter Collection” is heading to consoles this October, just in time for witchcraft and wizardry galore. Remastered versions of “LEGO Harry Potter: Years 1-4” and “LEGO Harry Potter: Years 5-7” will be included in the package when it lands on Nintendo Switch and Xbox One for the first time ever. Now, […]Muggles, rejoice: “LEGO Harry Potter Collection” is heading to consoles this October, just in time for witchcraft and wizardry galore. Remastered versions of “LEGO Harry Potter: Years 1-4” and “LEGO Harry Potter: Years 5-7” will be included in the package when it lands on Nintendo Switch and Xbox One for the first time ever. Now, […]Muggles, rejoice: “LEGO Harry Potter Collection” is heading to consoles this October, just in time for witchcraft and wizardry galore. Remastered versions of “LEGO Harry Potter: Years 1-4” and “LEGO Harry Potter: Years 5-7” will be included in the package when it lands on Nintendo Switch and Xbox One for the first time ever. Now, […]Muggles, rejoice: “LEGO Harry Potter Collection” is heading to consoles this October, just in time for witchcraft and wizardry galore. Remastered versions of “LEGO Harry Potter: Years 1-4” and “LEGO Harry Potter: Years 5-7” will be included in the package when it lands on Nintendo Switch and Xbox One for the first time ever. Now, […]Muggles, rejoice: “LEGO Harry Potter Collection” is heading to consoles this October, just in time for witchcraft and wizardry galore. Remastered versions of “LEGO Harry Potter: Years 1-4” and “LEGO Harry Potter: Years 5-7” will be included in the package when it lands on Nintendo Switch and Xbox One for the first time ever. Now, […]
+		© Copyright 2018 Variety Media, LLC, a subsidiary of Penske Business Media, LLC. Variety and the Flying V logos are trademarks of Variety Media, LLC.		Powered by WordPress.com VIP
+	</v>
+      </c>
+      <c r="E8" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+		59 mins ago	</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9" t="str">
+        <v>5b92d8912e84332c18f4de73</v>
+      </c>
+      <c r="B9" t="str">
+        <v>https://www.theguardian.com/books/2018/sep/05/atwood-shakespeare-harry-potter-top-10-false-identities-in-fiction</v>
+      </c>
+      <c r="C9" t="str" xml:space="preserve">
+        <v xml:space="preserve">Skip to main content
+switch to the 
+US edition
+switch to the 
+UK edition
+switch to the 
+Australia edition
+switch to the 
+International edition
+The Guardian - Back to home
+Make a contribution
+Subscribe
+Find a job
+Jobs
+Sign in / Register
+Comments &amp; replies
+Public profile
+Account details
+Emails &amp; marketing
+Membership
+Contributions
+Digital Pack
+Sign out
+Search
+News
+Opinion
+Sport
+Culture
+Lifestyle
+US news
+World news
+Environment
+Soccer
+US politics
+Business
+Tech
+Science
+Homelessness
+The Guardian view
+Columnists
+Letters
+Opinion videos
+Cartoons
+Soccer
+NFL
+Tennis
+MLB
+MLS
+NBA
+NHL
+Film
+Books
+Music
+Art &amp; design
+TV &amp; radio
+Stage
+Classical
+Games
+Fashion
+Food
+Recipes
+Love &amp; sex
+Home &amp; garden
+Health &amp; fitness
+Family
+Travel
+Money
+Make a contribution
+Subscribe
+Sign in / Register
+Comments &amp; replies
+Public profile
+Account details
+Emails &amp; marketing
+Membership
+Contributions
+Digital Pack
+Sign out
+switch to the 
+UK edition
+switch to the 
+Australia edition
+switch to the 
+International edition
+Jobs
+Digital Archive
+The Guardian app
+Video
+Podcasts
+Pictures
+Newsletters
+Inside the Guardian
+Crosswords
+Facebook
+Twitter
+Jobs
+Digital Archive
+Film
+Books
+Music
+Art &amp; design
+TV &amp; radio
+Stage
+Classical
+Games
+Top 10s
+Books
+Atwood? Shakespeare? Harry Potter? Top 10 false identities in fiction
+Share on Facebook
+Share on Twitter
+Share via Email
+The Liar’s RoomThe Handmaid’s Tale by Margaret AtwoodThe Likeness by Tana FrenchTwelfth Night by William Shakespeare
+  Facebook  
+  Twitter  
+  Pinterest The Harry Potter series by JK RowlingThe Seven Deaths of Evelyn Hardcastle by Stuart TurtonReady Player One by Ernest ClineTop 10 books about self-reinventionThe Talented Mr Ripley by Patricia HighsmithThe Percy Jackson series by Rick RiordanThe Woman in White by Wilkie CollinsA Tale of Two Cities by Charles DickensIt is available from the Guardian bookshop for £6.79
+Books
+Top 10s
+Crime fiction
+Patricia Highsmith
+William Shakespeare
+JK Rowling
+Harry Potter
+Share on Facebook
+Share on Twitter
+Share via Email
+Share on LinkedIn
+Share on Pinterest
+Share on Google+
+Share on WhatsApp
+Share on Messenger
+Reuse this content
+View all comments &gt;
+View all comments &gt;Trouble loading?
+Most viewed
+Most viewed
+Film
+Books
+Music
+Art &amp; design
+TV &amp; radio
+Stage
+Classical
+Games
+back to top
+jobs
+make a contribution
+subscribe
+guardian labs
+about us
+work for us
+contact us
+advertise with us
+help
+terms &amp; conditions
+privacy policy
+cookie policy
+securedrop
+complaints &amp; corrections
+all topics
+all contributors
+Facebook
+Twitter
+digital newspaper archive</v>
+      </c>
+      <c r="D9" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Characters in disguise are almost as frequent in books as in real life. From the boy wizard to the bard here are some of the best
+Characters in disguise are almost as frequent in books as in real life. From the boy wizard to the bard, here are some of the bestSimon LelicWe all wear masks. In the various parts of our lives, we present different faces to the world. Often it is a form of self-preservation. We want to be liked, valued, respected, feared. Sometimes it is because we desire something we are afraid that our real self would be unable to get: a new contract with a client, for example; a date with John/Joan from next door. Occasionally, it is because we have something we wish to hide. Something dark, perhaps. Something deadly.The Liar’s Room by Simon Lelic is published by Penguin, priced £7.99. It is available from the Guardian bookshop for £6.79.</v>
+      </c>
+      <c r="E9" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+Wed 5 Sep 2018 07.57 EDT
+Last modified on Thu 6 Sep 2018 04.33 EDT
+</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str">
+        <v>5b92d8912e84332c18f4de72</v>
+      </c>
+      <c r="B10" t="str">
+        <v>http://www.playbill.com/article/new-block-of-tickets-to-broadways-harry-potter-and-the-cursed-child-to-be-released-in-september</v>
+      </c>
+      <c r="C10" t="str" xml:space="preserve">
+        <v xml:space="preserve">New Block of Tickets to Broadway’s Harry Potter and the Cursed Child to Be Released in September   News 
+   Features 
+   Features 
+   Classic Arts 
+   Seth Rudetsky 
+   Cast Recordings 
+   Tony Awards 
+   Playbill Pride 
+   Broadway Bares 
+   Obituaries 
+   Photos 
+   Videos 
+   Jobs 
+   Playbill Vault 
+   Shows/Tickets 
+   Broadway 
+   Off-Broadway 
+   Regional/National Tours 
+   London 
+   Seating Charts 
+   Weekly Schedule 
+   Upcoming Broadway 
+   Upcoming NYC Closings 
+   ClubSEATS Giveaway 
+   Playbill Club Discounts 
+   Playbill Universe 
+   Playbill Store 
+   Playbill Travel 
+   Resources 
+   Grosses 
+   Long Runs 
+   Current Broadway Shows 
+   Broadway Rush Tix 
+   Off-B'way Rush Tix 
+   Restaurants 
+toggle menu 
+toggle search form
+                                    News
+                                    Universe
+                                    Features
+                                    Vault
+                                    Shows
+                                   Broadway 
+   Off-Broadway 
+   Regional/Tours 
+   London 
+                                    Jobs
+                                   Find A Job 
+   Post A Job 
+                                    Tickets
+                                   Full Price Tickets 
+   Broadway Discounts 
+   Broadway Rush 
+   Off-Bway Discounts 
+   Off-Bway Rush 
+   Subscribe to Save 
+   ClubSEATS Giveaway 
+                                    Travel
+                                    Shop
+                                Latest NewsCloseSee Shiri Maimon Meet the Press Ahead of her Broadway Debut in ChicagoDaniel Radcliffe, Cherry Jones, and Bobby Cannavale on What to Expect From The Lifespan of a Fact See the Company of the Dear Evan Hansen National Tour Meet the PressVictoria Clark Will Direct Rebecca Luker in Jeff Blumenkrantz Musical ScaffoldingJonathan Payne’s The Revolving Cycles Truly and Steadily Roll'd Begins Off-Broadway    66 New Stories 
+Beetlejuice Musical Sets Spring 2019 Broadway OpeningFox’s Rent Live is Searching for Its Roger A Sneak Peek at A Star Is Born With Bradley Cooper and Lady GagaWatch the Cast and Creative Team of Be More Chill React to the News of the Broadway TransferSteven Spielberg’s West Side Story Remake Plans Open Casting CallBroadway NewsPlaybill StaffBuy Tickets to Harry Potter and the Cursed Child, Parts One and TwoVIEW ALL BROADWAY DISCOUNTSHarry Potter and the Cursed Child HarryPotterThePlay.comJohn TiffanySubsequent stagings 
+                        Click Here to Shop for TheatreMerchandise in the Playbill Store
+               Harry Potter and the Cursed Child, Parts One and Two 
+Broadway NewsNew Block of Tickets to Broadway’s Harry Potter and the Cursed Child to Be Released in September 
+International NewsCast Set for Australian Harry Potter and the Cursed Child 
+Broadway NewsHow to Win a Walk-On Role in Kinky Boots, Tickets to Mean Girls, and More 
+International NewsGerman-Language Harry Potter and the Cursed Child Will Play Hamburg  
+San Francisco TheatreHarry Potter and the Cursed Child Will Play San Francisco in 2019 
+PhotosA Look at The Band’s Visit and Harry Potter and the Cursed Child Tony Awards After Parties 
+Interview10 Powerhouse Female Creators Discuss This Moment of Change for Women on Broadway 
+NewsPlaybill Store Offers Exclusive 2017–2018 Tony Season Merchandise 
+VideoSam Clemmett Chats All Things Harry Potter on the Playbill Couch    Playbill Store 
+   Playbill Classic Arts 
+   PLAYBILLder 
+   Playbill Travel 
+   Playbill Club 
+   Advertising 
+   Career 
+   RSS 
+   Site Map 
+   Privacy Policy 
+   Contact Us 
+</v>
+      </c>
+      <c r="D10" t="str" xml:space="preserve">
+        <v xml:space="preserve">After winning six Tony Awards including Best Play Broadway’s Harry Potter and the Cursed Child will release over 100,000 tickets at all price points (starting at $40) for performances over the next several months.The story of the Boy Who Lived continues on the Broadway stage officially on April 22. 
+					Sign up for exclusive discounts and save up to 50% on tickets!
+				</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11" t="str">
+        <v>5b92d8912e84332c18f4de71</v>
+      </c>
+      <c r="B11" t="str">
+        <v>https://www.theguardian.com/books/harrypotter</v>
+      </c>
+      <c r="C11" t="str" xml:space="preserve">
+        <v xml:space="preserve">Skip to main content
+switch to the 
+US edition
+switch to the 
+UK edition
+switch to the 
+Australia edition
+switch to the 
+International edition
+The Guardian - Back to home
+Make a contribution
+Subscribe
+Find a job
+Jobs
+Sign in / Register
+Comments &amp; replies
+Public profile
+Account details
+Emails &amp; marketing
+Membership
+Contributions
+Digital Pack
+Sign out
+Search
+News
+Opinion
+Sport
+Culture
+Lifestyle
+US news
+World news
+Environment
+Soccer
+US politics
+Business
+Tech
+Science
+Homelessness
+The Guardian view
+Columnists
+Letters
+Opinion videos
+Cartoons
+Soccer
+NFL
+Tennis
+MLB
+MLS
+NBA
+NHL
+Film
+Books
+Music
+Art &amp; design
+TV &amp; radio
+Stage
+Classical
+Games
+Fashion
+Food
+Recipes
+Love &amp; sex
+Home &amp; garden
+Health &amp; fitness
+Family
+Travel
+Money
+Make a contribution
+Subscribe
+Sign in / Register
+Comments &amp; replies
+Public profile
+Account details
+Emails &amp; marketing
+Membership
+Contributions
+Digital Pack
+Sign out
+switch to the 
+UK edition
+switch to the 
+Australia edition
+switch to the 
+International edition
+Jobs
+Digital Archive
+The Guardian app
+Video
+Podcasts
+Pictures
+Newsletters
+Inside the Guardian
+Crosswords
+Facebook
+Twitter
+Jobs
+Digital Archive
+Film
+Books
+Music
+Art &amp; design
+TV &amp; radio
+Stage
+Classical
+Games
+ Harry Potter Top 10s  Atwood? Shakespeare? Harry Potter? Top 10 false identities in fiction Top 10s  Atwood? Shakespeare? Harry Potter? Top 10 false identities in fiction Atwood? Shakespeare? Harry Potter? Top 10 false identities in fiction  'A whole new controversy': Harry Potter and the Cursed Child comes to Australia   'A whole new controversy': Harry Potter and the Cursed Child comes to Australia 'A whole new controversy': Harry Potter and the Cursed Child comes to Australia  How well do you know your fictional bookshops? – quiz   How well do you know your fictional bookshops? – quiz How well do you know your fictional bookshops? – quiz  Harry rotters: Warner Bros cracks down on Potter fan festivals in US   Harry rotters: Warner Bros cracks down on Potter fan festivals in US Harry rotters: Warner Bros cracks down on Potter fan festivals in US  Harry Potter and Tom Kerridge fuel Bloomsbury's record revenue   Harry Potter and Tom Kerridge fuel Bloomsbury's record revenue Harry Potter and Tom Kerridge fuel Bloomsbury's record revenue  Harry Potter: Hogwarts Mystery review: a shameless shake-down   Harry Potter: Hogwarts Mystery review: a shameless shake-down Harry Potter: Hogwarts Mystery review: a shameless shake-down  Harry Potter: Hogwarts Mystery – a wizarding fantasy on your phone?   Harry Potter: Hogwarts Mystery – a wizarding fantasy on your phone? Harry Potter: Hogwarts Mystery – a wizarding fantasy on your phone?  Harry Potter and the Cursed Child review – thrilling Broadway transfer is magic   Harry Potter and the Cursed Child review – thrilling Broadway transfer is magic Harry Potter and the Cursed Child review – thrilling Broadway transfer is magic  From Circe to Clinton: why powerful women are cast as witches   From Circe to Clinton: why powerful women are cast as witches From Circe to Clinton: why powerful women are cast as witches  Maggie Smith and Michael Gambon return to Hogwarts for new Harry Potter game   Maggie Smith and Michael Gambon return to Hogwarts for new Harry Potter game Maggie Smith and Michael Gambon return to Hogwarts for new Harry Potter game  Italian bookseller guilty of stealing rare copy of Harry Potter   Italian bookseller guilty of stealing rare copy of Harry Potter Italian bookseller guilty of stealing rare copy of Harry Potter  Call Me By Monet: how Instagram hybrids turned pop into art   Call Me By Monet: how Instagram hybrids turned pop into art Call Me By Monet: how Instagram hybrids turned pop into art  Record-breaking Harry Potter magic exhibition goes online   Record-breaking Harry Potter magic exhibition goes online Record-breaking Harry Potter magic exhibition goes onlineBook clinic  Book clinic: why are some titles changed from country to country? Book clinic  Book clinic: why are some titles changed from country to country? Book clinic: why are some titles changed from country to country?Film blog  Fantastic Beasts 2: why can't they just let Dumbledore be gay? Film blog  Fantastic Beasts 2: why can't they just let Dumbledore be gay? Fantastic Beasts 2: why can't they just let Dumbledore be gay?  New Harry Potter game coming to smartphones   New Harry Potter game coming to smartphones New Harry Potter game coming to smartphones  I watched the crowdfunded Harry Potter spinoff. It was ... good?   I watched the crowdfunded Harry Potter spinoff. It was ... good? I watched the crowdfunded Harry Potter spinoff. It was ... good?Art Weekly  Potter power, Banksy for sale, the US embassy and critics' picks of 2017 – the week in art Art Weekly  Potter power, Banksy for sale, the US embassy and critics' picks of 2017 – the week in art Potter power, Banksy for sale, the US embassy and critics' picks of 2017 – the week in artBrief letters  Pottering around on homemade besoms Brief letters  Pottering around on homemade besoms Pottering around on homemade besomsBooks blog  'He began to eat Hermione's family': bot tries to write Harry Potter book – and fails in magic ways Books blog  'He began to eat Hermione's family': bot tries to write Harry Potter book – and fails in magic ways 'He began to eat Hermione's family': bot tries to write Harry Potter book – and fails in magic ways234 
+  next  JK Rowling  Harry Potter  Games  Science fiction and fantasy films  Art 
+Film
+Books
+Music
+Art &amp; design
+TV &amp; radio
+Stage
+Classical
+Games
+back to top
+jobs
+make a contribution
+subscribe
+guardian labs
+about us
+work for us
+contact us
+advertise with us
+help
+terms &amp; conditions
+privacy policy
+cookie policy
+securedrop
+complaints &amp; corrections
+all topics
+all contributors
+Facebook
+Twitter
+digital newspaper archive</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E11"/>
+  </ignoredErrors>
+</worksheet>
 </file>